--- a/docs/RS485 mapping.xlsx
+++ b/docs/RS485 mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Splode\Documents\GitHub\Game-Control-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142CA21-18BD-42A3-B5D9-311029026701}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BA9A2-2FD8-4D33-A046-48445143E4A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16425" yWindow="5310" windowWidth="28800" windowHeight="19320" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
+    <workbookView xWindow="3780" yWindow="2505" windowWidth="28800" windowHeight="19320" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>red</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>yellow/purple</t>
+  </si>
+  <si>
+    <t>RXA</t>
+  </si>
+  <si>
+    <t>TXB</t>
+  </si>
+  <si>
+    <t>RXB</t>
+  </si>
+  <si>
+    <t>TXA</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,52 +729,112 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
         <v>8</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RS485 mapping.xlsx
+++ b/docs/RS485 mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Splode\Documents\GitHub\Game-Control-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BA9A2-2FD8-4D33-A046-48445143E4A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062F677-E9B5-4692-AB66-EA3D435DF9EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2505" windowWidth="28800" windowHeight="19320" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
+    <workbookView xWindow="-8370" yWindow="-24105" windowWidth="28800" windowHeight="19320" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>red</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>TXA</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Tie</t>
   </si>
 </sst>
 </file>
@@ -501,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A1BCD-7CA7-48D2-B27C-34C2AF2EC273}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -523,7 +529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -572,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -592,7 +598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -621,7 +627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -647,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -670,7 +676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -690,7 +696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -704,7 +710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -718,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -729,31 +735,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -766,8 +795,11 @@
       <c r="K19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>2</v>
       </c>
@@ -781,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
@@ -794,8 +826,11 @@
       <c r="K21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>7</v>
       </c>
@@ -808,8 +843,11 @@
       <c r="K22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>8</v>
       </c>
@@ -822,8 +860,11 @@
       <c r="K23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>

--- a/docs/RS485 mapping.xlsx
+++ b/docs/RS485 mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Splode\Documents\GitHub\Game-Control-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062F677-E9B5-4692-AB66-EA3D435DF9EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B649DA6-C4D5-4449-B5CF-8E463405FB90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8370" yWindow="-24105" windowWidth="28800" windowHeight="19320" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>red</t>
   </si>
@@ -154,6 +154,36 @@
   </si>
   <si>
     <t>Tie</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>The above appears to give console info, so assume that it works.</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>http://www.brainboxes.com/faq/items/sony-rs-422-pinout-db9</t>
+  </si>
+  <si>
+    <t>https://github.com/6XGate/PiAvSwitchController/wiki/Sony-BVM-D-Driver</t>
+  </si>
+  <si>
+    <t>https://www.futronix.com/pdf/Futronix-Interfacing-to-Crestron.pdf</t>
+  </si>
+  <si>
+    <t>PRO2 Manual</t>
   </si>
 </sst>
 </file>
@@ -507,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A1BCD-7CA7-48D2-B27C-34C2AF2EC273}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -529,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -578,7 +608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -598,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -627,7 +657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -653,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -676,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -696,7 +726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -710,7 +740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -724,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -735,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>11</v>
       </c>
@@ -748,8 +778,14 @@
       <c r="M15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>1</v>
       </c>
@@ -759,8 +795,17 @@
       <c r="M16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>2</v>
       </c>
@@ -770,8 +815,17 @@
       <c r="L17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>3</v>
       </c>
@@ -781,8 +835,17 @@
       <c r="L18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -799,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>2</v>
       </c>
@@ -812,8 +875,11 @@
       <c r="K20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
@@ -830,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>7</v>
       </c>
@@ -847,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>8</v>
       </c>
@@ -864,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>
@@ -876,6 +942,31 @@
       </c>
       <c r="K24" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RS485 mapping.xlsx
+++ b/docs/RS485 mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Splode\Documents\GitHub\Game-Control-System\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Game-Control-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B649DA6-C4D5-4449-B5CF-8E463405FB90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F2E37B-A9EB-479F-ACBF-FC22ED43F43C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8370" yWindow="-24105" windowWidth="28800" windowHeight="19320" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>red</t>
   </si>
@@ -177,13 +177,34 @@
     <t>http://www.brainboxes.com/faq/items/sony-rs-422-pinout-db9</t>
   </si>
   <si>
-    <t>https://github.com/6XGate/PiAvSwitchController/wiki/Sony-BVM-D-Driver</t>
-  </si>
-  <si>
     <t>https://www.futronix.com/pdf/Futronix-Interfacing-to-Crestron.pdf</t>
   </si>
   <si>
     <t>PRO2 Manual</t>
+  </si>
+  <si>
+    <t>STM485-S</t>
+  </si>
+  <si>
+    <t>D-/B</t>
+  </si>
+  <si>
+    <t>D-/A</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Extender</t>
+  </si>
+  <si>
+    <t>D+/A</t>
+  </si>
+  <si>
+    <t>5V/12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -537,15 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910A1BCD-7CA7-48D2-B27C-34C2AF2EC273}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -559,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -608,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -628,7 +649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -657,7 +678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -683,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -706,7 +727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -726,7 +747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -740,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -754,7 +775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -765,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J15" t="s">
         <v>11</v>
       </c>
@@ -785,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J16">
         <v>1</v>
       </c>
@@ -805,7 +826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.35">
       <c r="J17">
         <v>2</v>
       </c>
@@ -825,7 +846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.35">
       <c r="J18">
         <v>3</v>
       </c>
@@ -845,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -862,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D20">
         <v>2</v>
       </c>
@@ -879,7 +900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
@@ -896,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D22">
         <v>7</v>
       </c>
@@ -913,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D23">
         <v>8</v>
       </c>
@@ -930,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D24">
         <v>3</v>
       </c>
@@ -944,29 +965,165 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>50</v>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="N35">
+        <v>9</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -974,5 +1131,6 @@
     <sortCondition ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/RS485 mapping.xlsx
+++ b/docs/RS485 mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Game-Control-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F2E37B-A9EB-479F-ACBF-FC22ED43F43C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC7DDF-4578-4455-87A0-750B79FF5DC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{E791A9EA-6964-4A2D-8DE0-D13CB73606D0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>red</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.merging.com/uploads/assets/Merging_pdfs/Common/Controllers/Sony/Sony9pin%20Wiring%20Chart.pdf</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,6 +1119,9 @@
       </c>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
       <c r="N35">
         <v>9</v>
       </c>
